--- a/KomalPackage (1).xlsx
+++ b/KomalPackage (1).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>User should be navigated to the New  Demo Page</t>
+  </si>
+  <si>
+    <t>Approved</t>
   </si>
   <si>
     <t xml:space="preserve">Valid value for required field Demo Name </t>
@@ -1217,8 +1220,8 @@
   <sheetPr/>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1271,7 +1274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1292,42 +1295,45 @@
       </c>
       <c r="H2" t="s">
         <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" hidden="1" spans="5:8">
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" hidden="1" spans="6:8">
       <c r="F4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1336,32 +1342,35 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" hidden="1" spans="6:8">
       <c r="F6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1370,46 +1379,49 @@
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" hidden="1" spans="5:8">
       <c r="E8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" hidden="1" spans="6:8">
       <c r="F9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1418,32 +1430,35 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" hidden="1" spans="6:8">
       <c r="F11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" hidden="1" spans="6:8">
       <c r="F12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
